--- a/Relatório Água 2024.xlsx
+++ b/Relatório Água 2024.xlsx
@@ -1791,7 +1791,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>V1.2.1 07/2024 by Gian Gabriel Silva Vianna</t>
+          <t>V1.2.2 07/2024 by Gian Gabriel Silva Vianna</t>
         </is>
       </c>
     </row>
@@ -2984,7 +2984,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>V1.2.1 07/2024 by Gian Gabriel Silva Vianna</t>
+          <t>V1.2.2 07/2024 by Gian Gabriel Silva Vianna</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>

--- a/Relatório Água 2024.xlsx
+++ b/Relatório Água 2024.xlsx
@@ -1791,7 +1791,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>V1.2.2 07/2024 by Gian Gabriel Silva Vianna</t>
+          <t>V1.2.3 07/2024 by Gian Gabriel Silva Vianna</t>
         </is>
       </c>
     </row>
@@ -2984,7 +2984,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>V1.2.2 07/2024 by Gian Gabriel Silva Vianna</t>
+          <t>V1.2.3 07/2024 by Gian Gabriel Silva Vianna</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
